--- a/2025/10/2025-10-29/29_combined_confidence.xlsx
+++ b/2025/10/2025-10-29/29_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.FC Köln - Bayern Munich : 18:45</t>
+          <t>1.FC Köln - Bayern Munich ✓: 1:4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,12 +491,16 @@
       <c r="F2" t="n">
         <v>1.2</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Arsenal FC  - Brighton &amp; Hove Albion: 18:45</t>
+          <t>Arsenal FC ✓ - Brighton &amp; Hove Albion: 2:0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,12 +520,16 @@
       <c r="F3" t="n">
         <v>1.5</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Inter Milan  - ACF Fiorentina: 18:45</t>
+          <t>Inter Milan ✓ - ACF Fiorentina: 3:0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -530,7 +538,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
         <v>98</v>
@@ -541,7 +549,11 @@
       <c r="F4" t="n">
         <v>1.4</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -571,7 +583,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Celtic FC  - Falkirk FC: 18:45</t>
+          <t>Celtic FC ✓ - Falkirk FC: 4:0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
         <v>79</v>
@@ -589,7 +601,40 @@
       <c r="F6" t="n">
         <v>1.22</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AS Roma ✓ - Parma Calcio 1913: 2:1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86</v>
+      </c>
+      <c r="E7" t="n">
+        <v>91</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
